--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504748.4406217715</v>
+        <v>505532.5865598001</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5430981.626989719</v>
+        <v>5430981.62698972</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>129.0037164986567</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16.92363275912309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -896,70 +898,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.67472280927132</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>109.9129409668011</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>37.36227613112857</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,70 +1369,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>119.3034809802377</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>28.72815266929527</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1977,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="19">
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,64 +2089,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.83783599834098</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>107.8030269818536</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>15.60020578567533</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>191.6328515574376</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.64856914772007</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,55 +2955,55 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,13 +3125,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.7923727229345</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3184,76 +3186,76 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,61 +3277,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>47.59849352211437</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="37">
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>42.85481415735259</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>119.1003526907495</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4138,58 +4140,58 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4331,7 +4333,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
         <v>176.2910403306274</v>
@@ -4358,22 +4360,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4386,22 +4388,22 @@
         <v>480.4386961837225</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>331.5042865224712</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>172.2668315170157</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>172.2668315170157</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>33.53600609963121</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>33.53600609963121</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4568,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>122.874819529786</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>767.8544860265849</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>594.4371414772538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4805,10 +4807,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X8" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.3317048933958</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C9" t="n">
         <v>609.8786756122688</v>
@@ -4890,13 +4892,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>784.3317048933958</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y9" t="n">
-        <v>784.3317048933958</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5130,40 +5132,40 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>17.19556020784815</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>17.19556020784815</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V14" t="n">
-        <v>236.1051990630351</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>793.0530417235304</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="16">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5709,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>417.2522547781879</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>417.2522547781879</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.2522547781879</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>209.491956013234</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="C24" t="n">
-        <v>35.038926732107</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D24" t="n">
-        <v>35.038926732107</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E24" t="n">
-        <v>35.038926732107</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>770.4886185839316</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>535.336510352189</v>
       </c>
       <c r="W24" t="n">
-        <v>417.2522547781879</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="X24" t="n">
-        <v>417.2522547781879</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="Y24" t="n">
-        <v>209.491956013234</v>
+        <v>291.8877337080889</v>
       </c>
     </row>
     <row r="25">
@@ -6172,13 +6174,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6309,40 +6311,40 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>892.6949644523331</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S27" t="n">
-        <v>892.6949644523331</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>690.5083698110992</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>462.2847515474883</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>227.1326433157456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
         <v>19.28114311021272</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.8099852548154</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D33" t="n">
-        <v>304.5465265007123</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>741.8852293736891</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>539.698634732455</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>539.698634732455</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.5465265007123</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6901,7 +6903,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.4702815141908</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C36" t="n">
-        <v>515.0172522330638</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D36" t="n">
-        <v>366.0828425718125</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>206.845387566357</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,10 +7028,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
+        <v>613.2059550252818</v>
+      </c>
+      <c r="O36" t="n">
         <v>851.8101010141643</v>
-      </c>
-      <c r="O36" t="n">
-        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.4702815141908</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7122,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>742.8341567219593</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>646.1825904461579</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>646.1825904461579</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>646.1825904461579</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>646.1825904461579</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>646.1825904461579</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.73453560909468</v>
+        <v>438.4222916812039</v>
       </c>
     </row>
     <row r="40">
@@ -7357,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7415,46 +7417,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7497,13 +7499,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.976906990516</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7658,7 +7660,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7676,22 +7678,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>396.792197863116</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>396.792197863116</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.4989467641607</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>137.4989467641607</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>513.308066045118</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
         <v>16.44142755506243</v>
@@ -7837,19 +7839,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8538,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8778,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,16 +11147,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11306,10 +11308,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22598,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361756</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>18.44134906598205</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>72.47300009229198</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22784,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.48311134337182</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748161</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>62.79555802151462</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>168.4107090723489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>39.44647140371328</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>113.4971061691875</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>350.7793706321742</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,22 +23542,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.94924155962048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>142.9550184345426</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23865,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="19">
@@ -23947,13 +23949,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.69534765152636</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>64.90547200646216</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>394.1189821444107</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24254,10 +24256,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,22 +24287,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>129.4690066077085</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>34.30853052353726</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.50926500492307</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>102.644360585345</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>29.54189051333978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24920,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24999,10 +25001,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,13 +25013,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>51.89079838090332</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>97.47071887126951</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.9490329357426</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.79432507597421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>157.309914537469</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>52.52706109444571</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>178.2115505507204</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>28.34471287388929</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>47.25034112405082</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457548.1754883482</v>
+        <v>457548.1754883483</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457548.1754883483</v>
+        <v>457548.1754883482</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457548.1754883482</v>
+        <v>457548.1754883484</v>
       </c>
     </row>
   </sheetData>
@@ -26326,22 +26328,22 @@
         <v>102542.4671927055</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26352,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="P2" t="n">
         <v>102542.4671927055</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8092.707817725993</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="C4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26439,10 +26441,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26454,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725994</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20547.08214855773</v>
+        <v>-20547.08214855774</v>
       </c>
       <c r="C6" t="n">
-        <v>48326.67443313211</v>
+        <v>48326.67443313209</v>
       </c>
       <c r="D6" t="n">
-        <v>48326.67443313209</v>
+        <v>48326.67443313207</v>
       </c>
       <c r="E6" t="n">
         <v>81954.27443313209</v>
       </c>
       <c r="F6" t="n">
-        <v>81954.27443313207</v>
+        <v>81954.27443313209</v>
       </c>
       <c r="G6" t="n">
-        <v>75074.61433809486</v>
+        <v>75074.61433809489</v>
       </c>
       <c r="H6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226199</v>
       </c>
       <c r="I6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="J6" t="n">
-        <v>31031.14642205258</v>
+        <v>31031.14642205254</v>
       </c>
       <c r="K6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="L6" t="n">
-        <v>84803.657312262</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="M6" t="n">
         <v>84803.65731226196</v>
@@ -26558,10 +26560,10 @@
         <v>84803.65731226197</v>
       </c>
       <c r="O6" t="n">
-        <v>81954.27443313207</v>
+        <v>81954.27443313212</v>
       </c>
       <c r="P6" t="n">
-        <v>81954.2744331321</v>
+        <v>81954.27443313209</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505532.5865598001</v>
+        <v>401300.0882963568</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="T2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.92363275912309</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>56.18438237580112</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,17 +1132,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>109.9129409668011</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>91.62348452982235</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>31.15099944008764</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>28.72815266929527</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1745,10 +1745,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>107.8030269818536</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>191.6328515574376</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,58 +3034,58 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.9272112248127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>190.3453970742849</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>42.85481415735259</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>164.1465816784671</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>205.5178444382804</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>42.14629172736426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4336,10 +4336,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4357,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>350.131911841645</v>
       </c>
       <c r="C3" t="n">
-        <v>480.4386961837225</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D3" t="n">
-        <v>331.5042865224712</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
-        <v>172.2668315170157</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>172.2668315170157</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>33.53600609963121</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>33.53600609963121</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4418,16 +4418,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>765.3194763634235</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>765.3194763634235</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>765.3194763634235</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>765.3194763634235</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>765.3194763634235</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>557.7256941025342</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>350.131911841645</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4573,16 +4573,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4594,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>122.874819529786</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4658,40 +4658,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4783,10 +4783,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4813,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>609.8786756122688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>720.9018483060073</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>672.8764276104736</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5162,10 +5162,10 @@
         <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C14" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D14" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5284,16 +5284,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5323,7 +5323,7 @@
         <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
         <v>16.44142755506243</v>
@@ -5360,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>793.0530417235304</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>590.8664470822965</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>383.2726648214073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V15" t="n">
-        <v>175.6788825605179</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W15" t="n">
-        <v>175.6788825605179</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X15" t="n">
-        <v>175.6788825605179</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.6788825605179</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>770.4886185839316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>535.336510352189</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>291.8877337080889</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>291.8877337080889</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6183,7 +6183,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6408,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>83.81530782185143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.81530782185143</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6897,10 +6897,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
         <v>31.35113235729608</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>761.6974622895962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>438.4222916812039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>646.1825904461579</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>646.1825904461579</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V39" t="n">
-        <v>646.1825904461579</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W39" t="n">
-        <v>646.1825904461579</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X39" t="n">
-        <v>646.1825904461579</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y39" t="n">
-        <v>438.4222916812039</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7435,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
+        <v>219.90409354896</v>
+      </c>
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>639.976906990516</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3831247296267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>224.7893424687375</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7681,19 +7681,19 @@
         <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7736,16 +7736,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I46" t="n">
         <v>16.44142755506243</v>
@@ -7839,19 +7839,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.628815381816</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,7 +8701,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>222.4246658592332</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9971,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,10 +11384,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>72.47300009229198</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>115.4987887280367</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22834,25 +22834,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>52.27602240042461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>348.5708004529262</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>62.79555802151462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>39.44647140371328</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>20.61195970667411</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23402,7 +23402,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>350.7793706321742</v>
+        <v>350.7793706321741</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>142.9550184345426</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,10 +23633,10 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>198.0202603516482</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,16 +24050,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>64.90547200646216</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24256,16 +24256,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>34.30853052353726</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24423,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330.3082731757329</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>308.7646895842779</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.644360585345</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>10.266737026651</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24922,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>107.5778969230784</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>259.3668408089273</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25292,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>59.75548455249168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.67467251196047</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>248.8613317647918</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,16 +25478,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>157.309914537469</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>61.79480040250769</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9009519055692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>52.52706109444571</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>159.7550473327271</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>178.2115505507205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>210.6509718663889</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>47.25034112405082</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457548.1754883482</v>
+        <v>457548.1754883483</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457548.1754883482</v>
+        <v>457548.1754883483</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457548.1754883483</v>
+        <v>457548.1754883482</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457548.1754883483</v>
+        <v>457548.1754883484</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457548.1754883484</v>
+        <v>457548.1754883483</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="C2" t="n">
-        <v>102542.4671927055</v>
+        <v>102542.4671927056</v>
       </c>
       <c r="D2" t="n">
         <v>102542.4671927055</v>
@@ -26328,16 +26328,16 @@
         <v>102542.4671927055</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26352,7 +26352,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>102542.4671927056</v>
+        <v>102542.4671927055</v>
       </c>
       <c r="P2" t="n">
         <v>102542.4671927055</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8092.707817725994</v>
+      </c>
+      <c r="C4" t="n">
         <v>8092.707817725995</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725994</v>
@@ -26429,7 +26429,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20547.08214855774</v>
+        <v>-33185.24430341822</v>
       </c>
       <c r="C6" t="n">
-        <v>48326.67443313209</v>
+        <v>35688.51227827161</v>
       </c>
       <c r="D6" t="n">
-        <v>48326.67443313207</v>
+        <v>35688.51227827157</v>
       </c>
       <c r="E6" t="n">
-        <v>81954.27443313209</v>
+        <v>69316.11227827158</v>
       </c>
       <c r="F6" t="n">
-        <v>81954.27443313209</v>
+        <v>69316.11227827157</v>
       </c>
       <c r="G6" t="n">
-        <v>75074.61433809489</v>
+        <v>62856.60371805438</v>
       </c>
       <c r="H6" t="n">
-        <v>84803.65731226199</v>
+        <v>72585.64669222146</v>
       </c>
       <c r="I6" t="n">
-        <v>84803.65731226197</v>
+        <v>72585.6466922215</v>
       </c>
       <c r="J6" t="n">
-        <v>31031.14642205254</v>
+        <v>18813.13580201209</v>
       </c>
       <c r="K6" t="n">
-        <v>84803.65731226196</v>
+        <v>72585.64669222149</v>
       </c>
       <c r="L6" t="n">
-        <v>84803.65731226197</v>
+        <v>72585.6466922215</v>
       </c>
       <c r="M6" t="n">
-        <v>84803.65731226196</v>
+        <v>72585.6466922215</v>
       </c>
       <c r="N6" t="n">
-        <v>84803.65731226197</v>
+        <v>72585.64669222149</v>
       </c>
       <c r="O6" t="n">
-        <v>81954.27443313212</v>
+        <v>69316.11227827158</v>
       </c>
       <c r="P6" t="n">
-        <v>81954.27443313209</v>
+        <v>69316.11227827158</v>
       </c>
     </row>
   </sheetData>
@@ -34704,13 +34704,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35421,7 +35421,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36691,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
